--- a/Excel/镇魂街/ArenaRealTime.实时竞技场.xlsx
+++ b/Excel/镇魂街/ArenaRealTime.实时竞技场.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="9" r:id="rId1"/>
@@ -1340,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1517,7 +1517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2728,7 +2728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I804"/>
   <sheetViews>
-    <sheetView topLeftCell="A373" workbookViewId="0">
+    <sheetView topLeftCell="A331" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
